--- a/src/.vuepress/public/sample.xlsx
+++ b/src/.vuepress/public/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\crono.org\src\.vuepress\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0C29AB-59D4-4490-B88C-31BE7EE8AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F70BE1-6700-4495-8EB5-223978F030C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" activeTab="10" xr2:uid="{EC9ABD30-A5D1-4038-8E2C-02B6E8486F3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" xr2:uid="{EC9ABD30-A5D1-4038-8E2C-02B6E8486F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22BE6B-4DEF-4D00-8A46-144B5F7ED4B1}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883FBC24-6445-4EF1-AA6D-ABF34998A77C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -2084,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48F2853-B82F-4A09-A78E-4FA95F0CFFD1}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5862,7 +5862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A64C556-BAD2-49E5-B7C5-E66BB43FB53F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:E32"/>
     </sheetView>
   </sheetViews>

--- a/src/.vuepress/public/sample.xlsx
+++ b/src/.vuepress/public/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\crono.org\src\.vuepress\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F70BE1-6700-4495-8EB5-223978F030C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABCA51-6DE4-45A2-AEE8-3A73BD85011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" xr2:uid="{EC9ABD30-A5D1-4038-8E2C-02B6E8486F3F}"/>
   </bookViews>
@@ -26,6 +26,9 @@
     <sheet name="Noviembre" sheetId="11" r:id="rId11"/>
     <sheet name="Diciembre" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="TablaEnero">Enero!$A$1:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -425,7 +428,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
